--- a/biology/Botanique/Liste_des_parcs_de_la_métropole_de_Lyon/Liste_des_parcs_de_la_métropole_de_Lyon.xlsx
+++ b/biology/Botanique/Liste_des_parcs_de_la_métropole_de_Lyon/Liste_des_parcs_de_la_métropole_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_la_m%C3%A9tropole_de_Lyon</t>
+          <t>Liste_des_parcs_de_la_métropole_de_Lyon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,43 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article dresse une liste par communes des parcs, jardins et squares de la Métropole de Lyon. Si d'autres dénominations sont connues ou usitées, elles sont également mentionnées, tout comme les anciens noms sont indiqués en italiques.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_de_la_m%C3%A9tropole_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_de_la_m%C3%A9tropole_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Liste d'espaces verts part type</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des parcs
-Liste des jardins
-Liste des squares
-Autres espaces verts</t>
         </is>
       </c>
     </row>
